--- a/TDD Test Cases and Results.xlsx
+++ b/TDD Test Cases and Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>select #progress1 from dropdown list and click on any four increase/ decrease button</t>
   </si>
@@ -75,9 +75,6 @@
     <t>The selected progress bar doesn’t goes beyond 100%</t>
   </si>
   <si>
-    <t>The selected progress bar colour turns red after reaching 100%</t>
-  </si>
-  <si>
     <t>The selected progress bar doesn’t goes below 0%</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>Test Case</t>
+  </si>
+  <si>
+    <t>The colour of selected progress bar remains blue for more than 0% and less than 300%</t>
+  </si>
+  <si>
+    <t>The selected progress bar colour turns red after reaching 300%</t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,13 +675,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>10</v>
@@ -692,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>11</v>
@@ -709,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>11</v>
@@ -726,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>11</v>
@@ -743,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>11</v>
@@ -760,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -777,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>11</v>
@@ -794,10 +797,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>11</v>
@@ -896,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>11</v>
@@ -913,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>11</v>
@@ -930,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>11</v>

--- a/TDD Test Cases and Results.xlsx
+++ b/TDD Test Cases and Results.xlsx
@@ -57,9 +57,6 @@
     <t>S.No</t>
   </si>
   <si>
-    <t>The colour of selected progress bar remains blue for more than 0% and less than 100%</t>
-  </si>
-  <si>
     <t>The selected progress bar percentage increases only by 25 percent</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>The selected progress bar percentage decreases only by 10 percent</t>
   </si>
   <si>
-    <t>The selected progress bar doesn’t goes beyond 100%</t>
-  </si>
-  <si>
     <t>The selected progress bar doesn’t goes below 0%</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>The selected progress bar colour turns red after reaching 300%</t>
+  </si>
+  <si>
+    <t>The selected progress bar doesn’t goes beyond 300%</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -675,13 +675,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>10</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>11</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>11</v>
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>11</v>
@@ -746,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>11</v>
@@ -763,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="60">
@@ -780,13 +780,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60">
@@ -797,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="45">
@@ -814,10 +814,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>11</v>
@@ -831,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>11</v>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>11</v>
@@ -865,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>11</v>
@@ -882,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>11</v>
@@ -899,13 +899,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30">
@@ -916,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>11</v>
@@ -933,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>11</v>

--- a/TDD Test Cases and Results.xlsx
+++ b/TDD Test Cases and Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>select #progress1 from dropdown list and click on any four increase/ decrease button</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>The selected progress bar doesn’t goes beyond 300%</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -658,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -769,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="60">
@@ -786,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60">
@@ -803,7 +800,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="45">
@@ -905,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30">

--- a/TDD Test Cases and Results.xlsx
+++ b/TDD Test Cases and Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>select #progress1 from dropdown list and click on any four increase/ decrease button</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>The selected progress bar doesn’t goes beyond 300%</t>
+  </si>
+  <si>
+    <t>Select any #Progress bar on increasing and decreasing usage amount should be displayed in center</t>
+  </si>
+  <si>
+    <t>Usage amount should be displayed in center</t>
+  </si>
+  <si>
+    <t>Usage amount is not displayed in centerd</t>
   </si>
 </sst>
 </file>
@@ -653,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,6 +946,23 @@
       </c>
       <c r="F17" s="17" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30.75" thickBot="1">
+      <c r="B18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TDD Test Cases and Results.xlsx
+++ b/TDD Test Cases and Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>select #progress1 from dropdown list and click on any four increase/ decrease button</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Usage amount is not displayed in centerd</t>
+  </si>
+  <si>
+    <t>ProgressBar should be animated and on tapping + and - button it should work smoothly</t>
+  </si>
+  <si>
+    <t>Animate all #Progress bar on on tapping + and - button it should work smoothly</t>
+  </si>
+  <si>
+    <t>Progress Bar is not animated properly and on tapping + and -  button its not smooth</t>
   </si>
 </sst>
 </file>
@@ -662,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -962,6 +971,23 @@
         <v>31</v>
       </c>
       <c r="F18" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B19" s="14">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/TDD Test Cases and Results.xlsx
+++ b/TDD Test Cases and Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>select #progress1 from dropdown list and click on any four increase/ decrease button</t>
   </si>
@@ -111,16 +111,16 @@
     <t>Usage amount should be displayed in center</t>
   </si>
   <si>
-    <t>Usage amount is not displayed in centerd</t>
-  </si>
-  <si>
     <t>ProgressBar should be animated and on tapping + and - button it should work smoothly</t>
   </si>
   <si>
     <t>Animate all #Progress bar on on tapping + and - button it should work smoothly</t>
   </si>
   <si>
-    <t>Progress Bar is not animated properly and on tapping + and -  button its not smooth</t>
+    <t>Usage amount is  displayed in centerd</t>
+  </si>
+  <si>
+    <t>Progress Bar is animated properly and on tapping + and -  button transition is smooth</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,10 +971,10 @@
         <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="17" t="b">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="60.75" thickBot="1">
@@ -979,16 +982,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="17" t="b">
-        <v>0</v>
+      <c r="F19" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
